--- a/resource/filePresupuesto/Presupuesto0016.xlsx
+++ b/resource/filePresupuesto/Presupuesto0016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t/>
   </si>
@@ -29,10 +29,10 @@
     <t>Sr.</t>
   </si>
   <si>
-    <t>DIRIGIDO</t>
-  </si>
-  <si>
-    <t>OFERTA: INGEHISA 0013 - REV 001</t>
+    <t>Mahame Salah 1</t>
+  </si>
+  <si>
+    <t>OFERTA: INGEHISA 0012 - REV 004</t>
   </si>
   <si>
     <t xml:space="preserve">Guayaquil, </t>
@@ -68,7 +68,7 @@
     <t>SUBTOTAL</t>
   </si>
   <si>
-    <t>IVA 13%</t>
+    <t>IVA 12%</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -77,10 +77,22 @@
     <t xml:space="preserve">Nota: En esta oferta no se incluye lo siguiente: </t>
   </si>
   <si>
-    <t>cvbcvb</t>
-  </si>
-  <si>
-    <t>ccvccvb</t>
+    <t>asasa</t>
+  </si>
+  <si>
+    <t>asasasa</t>
+  </si>
+  <si>
+    <t>sdsdsd</t>
+  </si>
+  <si>
+    <t>sdsdsdsd</t>
+  </si>
+  <si>
+    <t>Ing. Justo Moran P</t>
+  </si>
+  <si>
+    <t>Gerente General</t>
   </si>
 </sst>
 </file>
@@ -166,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="justify"/>
@@ -184,6 +196,9 @@
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -239,7 +254,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="31.7265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.4609375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="15.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="12.48828125" customWidth="true" bestFit="true"/>
   </cols>
@@ -301,10 +316,18 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -384,31 +407,40 @@
         <v>16</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.3</v>
+        <v>2.0</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>198.09</v>
+        <v>136.47</v>
       </c>
       <c r="L9" s="6" t="n">
         <f>SUM(J9*K9)</f>
-        <v>455.61</v>
+        <v>272.94</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6">
-        <f>SUM(L9:L9)</f>
+      <c r="B10" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>641.93</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <f>SUM(J10*K10)</f>
+        <v>1283.86</v>
       </c>
     </row>
     <row r="11">
@@ -421,11 +453,11 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="6">
-        <f>SUM(L10*13.0%)</f>
+        <f>SUM(L9:L10)</f>
       </c>
     </row>
     <row r="12">
@@ -438,37 +470,39 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="6">
-        <f>SUM(L10:L11)</f>
+        <f>SUM(L11*12.0%)</f>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6">
+        <f>SUM(L11:L12)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14"/>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
     </row>
     <row r="15">
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -480,12 +514,66 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="16">
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
     <row r="19"/>
     <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
+    <row r="21">
+      <c r="C21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="23">
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23"/>
+    </row>
+    <row r="25"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:L1"/>
@@ -493,16 +581,22 @@
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
